--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value514.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value514.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034721147209089</v>
+        <v>1.238222002983093</v>
       </c>
       <c r="B1">
-        <v>1.764707915522642</v>
+        <v>2.492285251617432</v>
       </c>
       <c r="C1">
-        <v>2.540508039653839</v>
+        <v>3.919533252716064</v>
       </c>
       <c r="D1">
-        <v>2.782037097782147</v>
+        <v>2.775002002716064</v>
       </c>
       <c r="E1">
-        <v>0.9934150516372925</v>
+        <v>1.084582090377808</v>
       </c>
     </row>
   </sheetData>
